--- a/DesignDocs/Design/발주 문서/아이콘 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/아이콘 발주 문서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237B6F1-4688-488E-A6FE-BC75D90545B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08815A9-FBE6-4D15-A350-09C392395F34}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{341FA223-D819-42AC-876D-D212FE3ECC99}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="167">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
   </si>
   <si>
     <t>* 기본 디자인 컨셉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 3가지 색상을 이용한 도트 아이콘 디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -561,6 +557,71 @@
   <si>
     <t xml:space="preserve">
 민 무늬 강철 테두리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 3가지 색상을 이용한 도트 아이콘 디자인 (60 * 60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Enhancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">옅은 주황색 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhancer는 아이콘의 색상을 잡아준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음색(?)
+하늘색보다 얼음의 느낌이 더 나는 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,9 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -696,12 +754,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF79DCFB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -767,8 +836,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>113942</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619752</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>142587</xdr:rowOff>
     </xdr:to>
@@ -807,13 +876,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>308271</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317937</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -857,13 +926,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>430446</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>588150</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>121425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5667,6 +5736,386 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>336176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1176618</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1165412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69520D0-E128-4967-B16F-98CA2512ACCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3630706" y="43389176"/>
+          <a:ext cx="829236" cy="829236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>454958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1172135</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1176618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="직사각형 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5FA306-439C-47F0-891C-4F5280F839FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3626223" y="43507958"/>
+          <a:ext cx="829236" cy="721660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349624</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>661146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1178860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1098175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="직사각형 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A37896-37A4-4F78-A780-A054153F7A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3632948" y="43714146"/>
+          <a:ext cx="829236" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>345140</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>815788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1174376</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1187823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="직사각형 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DCC722-734E-4711-9151-FCB96B3B7FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3628464" y="43868788"/>
+          <a:ext cx="829236" cy="372035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>336177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1378323</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1187824</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="그룹 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271983D9-DEFB-4510-A430-A88B01782C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3810000" y="69745412"/>
+          <a:ext cx="851647" cy="851647"/>
+          <a:chOff x="3283324" y="70204853"/>
+          <a:chExt cx="851647" cy="851647"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="직각 삼각형 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1275922-2EBD-4E8E-B28F-18F85A3A0AF2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="3283324" y="70204853"/>
+            <a:ext cx="851647" cy="851647"/>
+          </a:xfrm>
+          <a:prstGeom prst="rtTriangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="직각 삼각형 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79B4F76-6F9F-428B-9495-7FE9FDFE1B4B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3283324" y="70204853"/>
+            <a:ext cx="851647" cy="851647"/>
+          </a:xfrm>
+          <a:prstGeom prst="rtTriangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="79DCFB"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5969,15 +6418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8F8C1D-02CC-4C0F-9B51-D650C3739C7B}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -6011,12 +6461,14 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -6182,7 +6634,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -6197,7 +6649,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -6212,7 +6664,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -6240,7 +6692,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -6255,7 +6707,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6269,9 +6721,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6293,7 +6743,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
@@ -6306,7 +6756,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
@@ -6319,7 +6769,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
@@ -6332,11 +6782,13 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -6345,11 +6797,13 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -6358,11 +6812,13 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -6371,7 +6827,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -6425,6 +6881,97 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6437,8 +6984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0ADACA-5E0F-4AD0-B6EE-84D525430D1B}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6479,9 +7026,9 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -6494,9 +7041,9 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -6509,9 +7056,9 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -6524,9 +7071,9 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>136</v>
+      </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -6539,9 +7086,9 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -6554,9 +7101,9 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -6569,9 +7116,9 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -6584,9 +7131,9 @@
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="13"/>
+        <v>139</v>
+      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -6598,7 +7145,7 @@
       <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -6611,9 +7158,9 @@
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -6625,7 +7172,7 @@
       <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -6638,9 +7185,9 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -6653,9 +7200,9 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -6668,9 +7215,9 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="13"/>
+        <v>140</v>
+      </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -6683,9 +7230,9 @@
         <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -6698,9 +7245,9 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -6713,9 +7260,9 @@
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -6728,145 +7275,166 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>155</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
       </c>
       <c r="E26" s="8"/>
     </row>
@@ -6875,10 +7443,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
       </c>
       <c r="E27" s="8"/>
     </row>
@@ -6887,10 +7458,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="8"/>
     </row>
@@ -6899,466 +7470,523 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:14" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>157</v>
       </c>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>157</v>
       </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
       </c>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>164</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>164</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>165</v>
       </c>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
       </c>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>130</v>
+        <v>67</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>159</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>131</v>
+        <v>68</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>132</v>
+        <v>69</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>166</v>
       </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>133</v>
+        <v>70</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>133</v>
+        <v>71</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>133</v>
+        <v>72</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>143</v>
+        <v>73</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>144</v>
+        <v>74</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>145</v>
+        <v>75</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>146</v>
+        <v>76</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
